--- a/Jogos_do_Dia/2024-01-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="K2" t="n">
         <v>2.95</v>
       </c>
       <c r="L2" t="n">
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
@@ -712,10 +712,10 @@
         <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="R2" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="S2" t="n">
         <v>2.4</v>
@@ -830,13 +830,13 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.35</v>
@@ -857,7 +857,7 @@
         <v>4.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
         <v>2.2</v>
@@ -969,13 +969,13 @@
         <v>7.01</v>
       </c>
       <c r="J4" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>6.45</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.36</v>
@@ -996,10 +996,10 @@
         <v>3.6</v>
       </c>
       <c r="S4" t="n">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="T4" t="n">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="U4" t="n">
         <v>2.04</v>
@@ -1086,128 +1086,128 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>VVV</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L5" t="n">
         <v>2.5</v>
       </c>
-      <c r="I5" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.48</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="V5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X5" t="n">
         <v>1.25</v>
       </c>
-      <c r="N5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P5" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH5" t="n">
         <v>1.15</v>
       </c>
-      <c r="X5" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1.14</v>
-      </c>
       <c r="AI5" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AK5" t="n">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="6">
@@ -1229,124 +1229,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>2.35</v>
       </c>
       <c r="J6" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AO6" t="n">
         <v>1.71</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P6" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1.88</v>
-      </c>
       <c r="AP6" t="n">
-        <v>2.39</v>
+        <v>2.67</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="7">
@@ -1364,41 +1364,41 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.9</v>
+        <v>2.65</v>
       </c>
       <c r="H7" t="n">
         <v>2.35</v>
       </c>
       <c r="I7" t="n">
-        <v>2.35</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
-        <v>3.57</v>
+        <v>2.15</v>
       </c>
       <c r="K7" t="n">
         <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.85</v>
+        <v>2.81</v>
       </c>
       <c r="M7" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="N7" t="n">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.02</v>
@@ -1407,85 +1407,85 @@
         <v>12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="S7" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="V7" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="W7" t="n">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="X7" t="n">
         <v>1.23</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AA7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH7" t="n">
         <v>1.22</v>
       </c>
-      <c r="AB7" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.84</v>
+        <v>2.79</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.09</v>
+        <v>2.13</v>
       </c>
       <c r="AN7" t="n">
         <v>2.12</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="8">
@@ -1503,128 +1503,128 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2.65</v>
+        <v>1.48</v>
       </c>
       <c r="K8" t="n">
-        <v>3.45</v>
+        <v>4.52</v>
       </c>
       <c r="L8" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P8" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.5</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>1.62</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>1.59</v>
       </c>
     </row>
     <row r="9">
@@ -1642,128 +1642,128 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="J9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P9" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.15</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z9" t="n">
         <v>2.5</v>
       </c>
-      <c r="U9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1.82</v>
-      </c>
       <c r="AA9" t="n">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.45</v>
+        <v>2.02</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.76</v>
+        <v>3.54</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.86</v>
+        <v>1.35</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.2</v>
+        <v>3.82</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.79</v>
+        <v>3.2</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.13</v>
+        <v>2.37</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.71</v>
+        <v>2.39</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="10">
@@ -1803,13 +1803,13 @@
         <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>2.85</v>
       </c>
       <c r="L10" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.62</v>
@@ -1942,13 +1942,13 @@
         <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>4.9</v>
+        <v>5.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.3</v>
@@ -1972,7 +1972,7 @@
         <v>1.65</v>
       </c>
       <c r="T11" t="n">
-        <v>2.07</v>
+        <v>2.23</v>
       </c>
       <c r="U11" t="n">
         <v>1.7</v>
@@ -2081,13 +2081,13 @@
         <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.36</v>
@@ -2108,10 +2108,10 @@
         <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="T12" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
         <v>1.67</v>
@@ -2220,13 +2220,13 @@
         <v>2.3</v>
       </c>
       <c r="J13" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="M13" t="n">
         <v>1.33</v>
@@ -2247,10 +2247,10 @@
         <v>4.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="T13" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="U13" t="n">
         <v>1.75</v>

--- a/Jogos_do_Dia/2024-01-22_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-22_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
@@ -721,7 +721,7 @@
         <v>2.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -739,10 +739,10 @@
         <v>1.37</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AB2" t="n">
         <v>1.38</v>
@@ -830,10 +830,10 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
@@ -857,10 +857,10 @@
         <v>4.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
         <v>1.7</v>
@@ -878,10 +878,10 @@
         <v>2.45</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="AB3" t="n">
         <v>1.47</v>
@@ -969,13 +969,13 @@
         <v>7.01</v>
       </c>
       <c r="J4" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="K4" t="n">
         <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
         <v>1.36</v>
@@ -996,10 +996,10 @@
         <v>3.6</v>
       </c>
       <c r="S4" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="U4" t="n">
         <v>2.04</v>
@@ -1017,10 +1017,10 @@
         <v>2.88</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AB4" t="n">
         <v>1.81</v>
@@ -1086,128 +1086,128 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.65</v>
+        <v>1.48</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>4.52</v>
       </c>
       <c r="L5" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.5</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>1.62</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>1.59</v>
       </c>
     </row>
     <row r="6">
@@ -1229,124 +1229,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.35</v>
+        <v>4.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.57</v>
+        <v>1.71</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.78</v>
       </c>
       <c r="L6" t="n">
-        <v>1.85</v>
+        <v>4.17</v>
       </c>
       <c r="M6" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="N6" t="n">
-        <v>3.62</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AH6" t="n">
         <v>1.16</v>
       </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1.22</v>
-      </c>
       <c r="AI6" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.09</v>
+        <v>2.37</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.67</v>
+        <v>2.39</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="7">
@@ -1364,41 +1364,41 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.65</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
         <v>2.35</v>
       </c>
       <c r="I7" t="n">
-        <v>3.25</v>
+        <v>2.35</v>
       </c>
       <c r="J7" t="n">
-        <v>2.15</v>
+        <v>3.57</v>
       </c>
       <c r="K7" t="n">
         <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>2.81</v>
+        <v>1.85</v>
       </c>
       <c r="M7" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="O7" t="n">
         <v>1.02</v>
@@ -1407,85 +1407,85 @@
         <v>12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="R7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="U7" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="V7" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.38</v>
+        <v>1.85</v>
       </c>
       <c r="X7" t="n">
         <v>1.23</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.31</v>
+        <v>1.67</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.76</v>
+        <v>3.31</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.86</v>
+        <v>3.28</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.2</v>
+        <v>1.43</v>
       </c>
       <c r="AH7" t="n">
         <v>1.22</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AN7" t="n">
         <v>2.12</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="8">
@@ -1503,128 +1503,128 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>VVV</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L8" t="n">
         <v>2.5</v>
       </c>
-      <c r="I8" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="M8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.48</v>
       </c>
-      <c r="K8" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="V8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X8" t="n">
         <v>1.25</v>
       </c>
-      <c r="N8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P8" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH8" t="n">
         <v>1.15</v>
       </c>
-      <c r="X8" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1.14</v>
-      </c>
       <c r="AI8" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AK8" t="n">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="9">
@@ -1642,128 +1642,128 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="I9" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="K9" t="n">
-        <v>3.78</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
-        <v>4.17</v>
+        <v>2.81</v>
       </c>
       <c r="M9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P9" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="R9" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Y9" t="n">
         <v>1.62</v>
       </c>
-      <c r="V9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH9" t="n">
         <v>1.22</v>
       </c>
-      <c r="Y9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1.16</v>
-      </c>
       <c r="AI9" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AK9" t="n">
-        <v>3.2</v>
+        <v>2.79</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.37</v>
+        <v>2.13</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.39</v>
+        <v>2.71</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="10">
@@ -1803,13 +1803,13 @@
         <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="K10" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M10" t="n">
         <v>1.62</v>
@@ -1824,16 +1824,16 @@
         <v>6.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R10" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S10" t="n">
-        <v>2.03</v>
+        <v>2.75</v>
       </c>
       <c r="T10" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="U10" t="n">
         <v>2.25</v>
@@ -1942,13 +1942,13 @@
         <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.3</v>
@@ -1972,7 +1972,7 @@
         <v>1.65</v>
       </c>
       <c r="T11" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
         <v>1.7</v>
@@ -2084,10 +2084,10 @@
         <v>1.85</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="M12" t="n">
         <v>1.36</v>
@@ -2108,10 +2108,10 @@
         <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U12" t="n">
         <v>1.67</v>
@@ -2220,13 +2220,13 @@
         <v>2.3</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="M13" t="n">
         <v>1.33</v>
@@ -2247,7 +2247,7 @@
         <v>4.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="T13" t="n">
         <v>2.05</v>
